--- a/mbs-perturbation/chatty/elm/nearmiss/chatty_elm_lin_nearmiss_results.xlsx
+++ b/mbs-perturbation/chatty/elm/nearmiss/chatty_elm_lin_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.7142857142857142</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.7692307692307693</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7142857142857144</v>
+        <v>0.7371794871794872</v>
       </c>
     </row>
     <row r="4">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3968253968253968</v>
+        <v>0.6346153846153846</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4019607843137255</v>
+        <v>0.6729323308270676</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5952380952380953</v>
+        <v>0.7532051282051282</v>
       </c>
     </row>
   </sheetData>
